--- a/biology/Médecine/Pandémie_de_Covid-19_en_Mongolie/Pandémie_de_Covid-19_en_Mongolie.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_en_Mongolie/Pandémie_de_Covid-19_en_Mongolie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Mongolie</t>
+          <t>Pandémie_de_Covid-19_en_Mongolie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
-La pandémie de Covid-19 en Mongolie démarre officiellement le 10 mars 2020. À la date du 31 octobre 2022, le bilan est de 2 179 morts[2].
+La pandémie de Covid-19 en Mongolie démarre officiellement le 10 mars 2020. À la date du 31 octobre 2022, le bilan est de 2 179 morts.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Mongolie</t>
+          <t>Pandémie_de_Covid-19_en_Mongolie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas de Covid-19 en Mongolie est confirmé le 10 mars 2020. Il s'agit d'un homme français de 57 ans, arrivé par avion à Oulan-Bator depuis Moscou. Fiévreux depuis le 7 mars, il lui est demandé de s'isoler à Dornogovi[3].
-Le palier du 10ème mort est atteint le 2 avril 2021, le 100ème le 29 avril 2021 et le 1000ème le 10 septembre 2021[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas de Covid-19 en Mongolie est confirmé le 10 mars 2020. Il s'agit d'un homme français de 57 ans, arrivé par avion à Oulan-Bator depuis Moscou. Fiévreux depuis le 7 mars, il lui est demandé de s'isoler à Dornogovi.
+Le palier du 10ème mort est atteint le 2 avril 2021, le 100ème le 29 avril 2021 et le 1000ème le 10 septembre 2021.
 </t>
         </is>
       </c>
